--- a/parseresult_org.xlsx
+++ b/parseresult_org.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5765" uniqueCount="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5765" uniqueCount="1128">
   <si>
     <t>No.</t>
   </si>
@@ -3408,15 +3408,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>查询</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>登录新用户</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>新用户首页加载</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核前查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核后查询</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3820,13 +3824,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="107.5" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
@@ -4152,7 +4156,7 @@
         <v>52</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -4228,7 +4232,7 @@
         <v>58</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
@@ -4266,7 +4270,7 @@
         <v>61</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
@@ -4294,7 +4298,7 @@
         <v>63</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
@@ -4330,7 +4334,7 @@
         <v>64</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
@@ -4366,7 +4370,7 @@
         <v>67</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
@@ -4402,7 +4406,7 @@
         <v>70</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
@@ -4438,7 +4442,7 @@
         <v>72</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
